--- a/Notas/Investigacion.xlsx
+++ b/Notas/Investigacion.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Temas" sheetId="2" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t xml:space="preserve">Arquitectura Orientada al Servicio </t>
   </si>
   <si>
-    <t>Esta relacionada a la integración de soluciones.</t>
-  </si>
-  <si>
     <t>Arquitectura de datos empresariales</t>
   </si>
   <si>
@@ -158,10 +155,13 @@
     <t>Detallar la arquitectura TOGAF y como se podría implementar.</t>
   </si>
   <si>
-    <t>Patrones deArquitectura Empresarial</t>
-  </si>
-  <si>
     <t>Explicar los principales patrones de una Arquitectura empresarial.</t>
+  </si>
+  <si>
+    <t>Esta relacionada a la integración de soluciones. Evolución.</t>
+  </si>
+  <si>
+    <t>Patrones de Arquitectura Empresarial</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,17 +279,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -381,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,123 +630,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="74.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="C4" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="C8" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -751,14 +754,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -773,7 +777,7 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -793,7 +797,7 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>0</v>
       </c>
@@ -811,7 +815,9 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
@@ -829,7 +835,7 @@
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>0</v>
       </c>
@@ -847,7 +853,7 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>0</v>
       </c>
@@ -865,7 +871,7 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="3">
         <v>0</v>
       </c>
@@ -883,7 +889,9 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
@@ -901,7 +909,9 @@
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
@@ -919,7 +929,7 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>0</v>
       </c>
@@ -937,7 +947,9 @@
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
@@ -955,7 +967,7 @@
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="3">
         <v>0</v>
       </c>
@@ -973,7 +985,9 @@
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
@@ -991,7 +1005,9 @@
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="17">
+        <v>5</v>
+      </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
@@ -1009,7 +1025,7 @@
       <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="3">
         <v>0</v>
       </c>

--- a/Notas/Investigacion.xlsx
+++ b/Notas/Investigacion.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +835,9 @@
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
@@ -929,7 +931,9 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
@@ -967,7 +971,9 @@
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17">
+        <v>5</v>
+      </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
@@ -1025,7 +1031,9 @@
       <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="17">
+        <v>4</v>
+      </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>

--- a/Notas/Investigacion.xlsx
+++ b/Notas/Investigacion.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -77,9 +77,6 @@
     <t>MORENO CHIPANA</t>
   </si>
   <si>
-    <t>JHON</t>
-  </si>
-  <si>
     <t>Nro.</t>
   </si>
   <si>
@@ -162,13 +159,52 @@
   </si>
   <si>
     <t>Patrones de Arquitectura Empresarial</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>julio.donayre@hotmail.com</t>
+  </si>
+  <si>
+    <t>991445098</t>
+  </si>
+  <si>
+    <t>jchumpitazh84@gmail.com</t>
+  </si>
+  <si>
+    <t>991980432</t>
+  </si>
+  <si>
+    <t>edwin_54_13@hotmail.com</t>
+  </si>
+  <si>
+    <t>997785330</t>
+  </si>
+  <si>
+    <t>john.moreno@gmail.com</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>991898381</t>
+  </si>
+  <si>
+    <t>eliasobeso@gmail.com</t>
+  </si>
+  <si>
+    <t>940081377</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +235,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -242,12 +292,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,10 +345,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Énfasis5" xfId="2" builtinId="45"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -631,7 +693,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,24 +705,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -668,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,43 +741,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C6" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -723,10 +785,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,13 +825,15 @@
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -778,16 +842,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -798,14 +868,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -818,52 +890,62 @@
       <c r="D3" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="3">
         <v>6</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -873,15 +955,23 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="17">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -894,14 +984,16 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -914,34 +1006,38 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -954,14 +1050,20 @@
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -974,14 +1076,16 @@
       <c r="D11" s="17">
         <v>5</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -989,19 +1093,25 @@
         <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1014,30 +1124,38 @@
       <c r="D13" s="17">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="17">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1045,7 +1163,14 @@
   <sortState ref="B2:E11">
     <sortCondition ref="B2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Notas/Investigacion.xlsx
+++ b/Notas/Investigacion.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -198,6 +198,36 @@
   </si>
   <si>
     <t>940081377</t>
+  </si>
+  <si>
+    <t>mayra.acunaz@gmail.com</t>
+  </si>
+  <si>
+    <t>mickyfarfan@hotmail.com</t>
+  </si>
+  <si>
+    <t>993113088</t>
+  </si>
+  <si>
+    <t>juniorramospio@gmail.com</t>
+  </si>
+  <si>
+    <t>949357310</t>
+  </si>
+  <si>
+    <t>994039720</t>
+  </si>
+  <si>
+    <t>juanpablod.fabian@gmail.com</t>
+  </si>
+  <si>
+    <t>980704388</t>
+  </si>
+  <si>
+    <t>geraldine.altuna@gmail.com</t>
+  </si>
+  <si>
+    <t>987973959</t>
   </si>
 </sst>
 </file>
@@ -298,7 +328,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,9 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,7 +720,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,79 +742,79 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -817,7 +844,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +868,7 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -867,9 +894,15 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3">
+        <v>7</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
@@ -890,8 +923,12 @@
       <c r="D3" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
@@ -912,10 +949,10 @@
       <c r="D4" s="3">
         <v>6</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="3">
@@ -935,9 +972,15 @@
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
@@ -955,13 +998,13 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="3">
@@ -984,8 +1027,12 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
@@ -1047,13 +1094,13 @@
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="3">
@@ -1073,7 +1120,7 @@
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>5</v>
       </c>
       <c r="E11" s="8"/>
@@ -1095,13 +1142,13 @@
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="3">
@@ -1121,13 +1168,13 @@
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>5</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="3">
@@ -1147,11 +1194,15 @@
       <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>4</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1169,8 +1220,13 @@
     <hyperlink ref="E10" r:id="rId3"/>
     <hyperlink ref="E12" r:id="rId4"/>
     <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="E5" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Notas/Investigacion.xlsx
+++ b/Notas/Investigacion.xlsx
@@ -844,7 +844,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Notas/Investigacion.xlsx
+++ b/Notas/Investigacion.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Temas" sheetId="2" r:id="rId1"/>
     <sheet name="EXPERIENCIA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EXPERIENCIA!$A$1:$H$14</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -719,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,6 +1212,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H14"/>
   <sortState ref="B2:E11">
     <sortCondition ref="B2"/>
   </sortState>
